--- a/CSVs/TP1_-_Pruebas.xlsx
+++ b/CSVs/TP1_-_Pruebas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaraya\OneDrive - TEC\IC-4302 Bases de datos II\Tareas programadas\Tareas programadas anteriores\2018-1 TP1 - Subastas en línea - Oracle PosgreSql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1 SEMESTRE 2021\BASES 2\PROYECTOS\Proyecto1-BDII\CSVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_278396175E09ACBEF9BAF632E8E68A897603ED4D" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{669C02DE-7885-4815-8DD0-A56C89BCFF8C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A39DB21-6E08-427B-A109-E2241A4D7762}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5880" tabRatio="1000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios" sheetId="2" r:id="rId1"/>
@@ -577,16 +577,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -943,7 +943,7 @@
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="24" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="15" t="s">
@@ -987,12 +987,12 @@
     <row r="6" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
-      <c r="D6" s="27"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
@@ -1235,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,17 +1248,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
